--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/136.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/136.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04694725166367683</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605941688959627</v>
+        <v>-1.601123616429325</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04229614067787121</v>
+        <v>-0.04248659699154859</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1495104531252676</v>
+        <v>-0.1394383047680645</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04075782806537477</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.588596785252454</v>
+        <v>-1.580766040123983</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07206871235727372</v>
+        <v>-0.07486889237406764</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1239106061364332</v>
+        <v>-0.1120330578470982</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.03887815831467308</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.637075000169394</v>
+        <v>-1.630220146896129</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1197819539812615</v>
+        <v>-0.1228229589236144</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1189855003058833</v>
+        <v>-0.1081861551146393</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04456299308757578</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.730891261856279</v>
+        <v>-1.725449877753942</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1471053519079201</v>
+        <v>-0.1486935372013125</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1301138154934792</v>
+        <v>-0.1185290347607061</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05513058624768908</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760146768254334</v>
+        <v>-1.761493341612607</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1090597357269612</v>
+        <v>-0.1082884663575238</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1199582441228471</v>
+        <v>-0.1093178748628545</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06484494943889425</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.619283075031771</v>
+        <v>-1.624060223064919</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04454069194484599</v>
+        <v>-0.04400080338623985</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1205075767961811</v>
+        <v>-0.1112444742673265</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.06707916339044823</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.332306334817109</v>
+        <v>-1.330954252391912</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.007282085324537406</v>
+        <v>-0.01262745426047454</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.116350592296826</v>
+        <v>-0.1042337931010533</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05782658691442799</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9132788344400461</v>
+        <v>-0.9064601836065715</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003803503066462887</v>
+        <v>-0.01884797782785486</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07622727087575014</v>
+        <v>-0.06421593096110459</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03384163475396239</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3899623361525245</v>
+        <v>-0.3732320869122195</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0486929543868372</v>
+        <v>-0.07037034572539028</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02866985714477115</v>
+        <v>-0.01782014334164551</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.007229464765761728</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1717704598190223</v>
+        <v>0.1990261749234651</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1046099836710441</v>
+        <v>-0.1371669951760276</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05342783218403012</v>
+        <v>0.06627025419472243</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06777260532543204</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8477329714616028</v>
+        <v>0.8838740245057878</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2307833564345073</v>
+        <v>-0.2710325993852872</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1329095017332297</v>
+        <v>0.1458589570441704</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1484035328363031</v>
       </c>
       <c r="E13" t="n">
-        <v>1.538344879066128</v>
+        <v>1.584927974961022</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4329550944317315</v>
+        <v>-0.4827318751237444</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2515559150586329</v>
+        <v>0.2637797475546541</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2457758461055601</v>
       </c>
       <c r="E14" t="n">
-        <v>2.259307023367574</v>
+        <v>2.315412934946337</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6625777259044398</v>
+        <v>-0.7178698695974903</v>
       </c>
       <c r="G14" t="n">
-        <v>0.371541818656263</v>
+        <v>0.3855978094094782</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3573509987643401</v>
       </c>
       <c r="E15" t="n">
-        <v>2.98916394972349</v>
+        <v>3.052718119784248</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9082278070797922</v>
+        <v>-0.9695421479309392</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4834215237791946</v>
+        <v>0.4972209494156378</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4759956211135713</v>
       </c>
       <c r="E16" t="n">
-        <v>3.609720988296286</v>
+        <v>3.672477130662545</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.187779112089719</v>
+        <v>-1.262975514581177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6267580010413204</v>
+        <v>0.6482417880279535</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.594380044962304</v>
       </c>
       <c r="E17" t="n">
-        <v>4.202092066463951</v>
+        <v>4.268537709650539</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.438850902128392</v>
+        <v>-1.52382511140137</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7758239079049808</v>
+        <v>0.7989745811410713</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7093971023376073</v>
       </c>
       <c r="E18" t="n">
-        <v>4.731105726961021</v>
+        <v>4.795530329595858</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.678816413247167</v>
+        <v>-1.767125969038181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9112729753502689</v>
+        <v>0.9391520020267466</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8271301728905176</v>
       </c>
       <c r="E19" t="n">
-        <v>5.160597306456491</v>
+        <v>5.226043447501051</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.965065169618228</v>
+        <v>-2.062985686163904</v>
       </c>
       <c r="G19" t="n">
-        <v>1.055914314463953</v>
+        <v>1.084182123863392</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9540119279244766</v>
       </c>
       <c r="E20" t="n">
-        <v>5.498024507547083</v>
+        <v>5.564967540776001</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.217688942510503</v>
+        <v>-2.318882631818924</v>
       </c>
       <c r="G20" t="n">
-        <v>1.20659831298431</v>
+        <v>1.235952195577447</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.087778839438684</v>
       </c>
       <c r="E21" t="n">
-        <v>5.782715771997617</v>
+        <v>5.849066974036925</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.43877802931708</v>
+        <v>-2.544433275824828</v>
       </c>
       <c r="G21" t="n">
-        <v>1.344068420981348</v>
+        <v>1.371382374793279</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.218268646672204</v>
       </c>
       <c r="E22" t="n">
-        <v>5.989694564391293</v>
+        <v>6.052699401778717</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.644290622899264</v>
+        <v>-2.748585129876648</v>
       </c>
       <c r="G22" t="n">
-        <v>1.458982834970148</v>
+        <v>1.487727572163341</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.330854805418722</v>
       </c>
       <c r="E23" t="n">
-        <v>6.127887147165008</v>
+        <v>6.19579033205792</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.765624673874289</v>
+        <v>-2.866592491438803</v>
       </c>
       <c r="G23" t="n">
-        <v>1.558231036644641</v>
+        <v>1.587510940339077</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.418666609402246</v>
       </c>
       <c r="E24" t="n">
-        <v>6.231500103862869</v>
+        <v>6.300964715724111</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.840493680388517</v>
+        <v>-2.936383712267715</v>
       </c>
       <c r="G24" t="n">
-        <v>1.606030849320301</v>
+        <v>1.634416710153837</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.478684291840324</v>
       </c>
       <c r="E25" t="n">
-        <v>6.249352628736661</v>
+        <v>6.316769441721091</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.918460356533464</v>
+        <v>-3.014811576015204</v>
       </c>
       <c r="G25" t="n">
-        <v>1.657850706831762</v>
+        <v>1.682381794837233</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.512097054211717</v>
       </c>
       <c r="E26" t="n">
-        <v>6.238559579621902</v>
+        <v>6.302708728910511</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.980280744532109</v>
+        <v>-3.07583472332891</v>
       </c>
       <c r="G26" t="n">
-        <v>1.676427280501353</v>
+        <v>1.700893833722851</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.51813452509098</v>
       </c>
       <c r="E27" t="n">
-        <v>6.142898567524853</v>
+        <v>6.203613207090784</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.995211889916768</v>
+        <v>-3.089205228754799</v>
       </c>
       <c r="G27" t="n">
-        <v>1.68304288286818</v>
+        <v>1.706838903944003</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.498382563946082</v>
       </c>
       <c r="E28" t="n">
-        <v>5.979976570336382</v>
+        <v>6.035794436415948</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.005411533822796</v>
+        <v>-3.100106098179367</v>
       </c>
       <c r="G28" t="n">
-        <v>1.669306417996588</v>
+        <v>1.691416664593499</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.455667189205968</v>
       </c>
       <c r="E29" t="n">
-        <v>5.810368139920628</v>
+        <v>5.861956616621257</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.963540264167516</v>
+        <v>-3.053884239672811</v>
       </c>
       <c r="G29" t="n">
-        <v>1.632403539697694</v>
+        <v>1.65409667122746</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.393904832295424</v>
       </c>
       <c r="E30" t="n">
-        <v>5.618550299703319</v>
+        <v>5.665418293059168</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.935987059449147</v>
+        <v>-3.022770603702061</v>
       </c>
       <c r="G30" t="n">
-        <v>1.56329937821523</v>
+        <v>1.582755828573627</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.318613089339334</v>
       </c>
       <c r="E31" t="n">
-        <v>5.380072236654173</v>
+        <v>5.422743895032634</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.837204767434559</v>
+        <v>-2.917404976712632</v>
       </c>
       <c r="G31" t="n">
-        <v>1.488786887031976</v>
+        <v>1.507728633137709</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.235504778386563</v>
       </c>
       <c r="E32" t="n">
-        <v>5.148406528362016</v>
+        <v>5.191844734052552</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.775384379435914</v>
+        <v>-2.856394421551896</v>
       </c>
       <c r="G32" t="n">
-        <v>1.415639070426891</v>
+        <v>1.434374620027733</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.149889499578741</v>
       </c>
       <c r="E33" t="n">
-        <v>4.854392348656019</v>
+        <v>4.895541930544182</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.652617184050945</v>
+        <v>-2.728451851296091</v>
       </c>
       <c r="G33" t="n">
-        <v>1.342359036215616</v>
+        <v>1.358552544935558</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.064529939151081</v>
       </c>
       <c r="E34" t="n">
-        <v>4.595848689848531</v>
+        <v>4.630725805538312</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.576447250732962</v>
+        <v>-2.651287924903007</v>
       </c>
       <c r="G34" t="n">
-        <v>1.241843749148476</v>
+        <v>1.257760230503068</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9834682221951663</v>
       </c>
       <c r="E35" t="n">
-        <v>4.283697087807785</v>
+        <v>4.311155851378876</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.503973114311794</v>
+        <v>-2.574149182815863</v>
       </c>
       <c r="G35" t="n">
-        <v>1.150312963225719</v>
+        <v>1.165894178507475</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9071455135927703</v>
       </c>
       <c r="E36" t="n">
-        <v>3.945101964529188</v>
+        <v>3.970755328168146</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.408480522260724</v>
+        <v>-2.475754886514675</v>
       </c>
       <c r="G36" t="n">
-        <v>1.071885886487791</v>
+        <v>1.082313763166408</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8372358998587651</v>
       </c>
       <c r="E37" t="n">
-        <v>3.662420722496555</v>
+        <v>3.686556731702579</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.340240497275853</v>
+        <v>-2.405280541387119</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9849339221888984</v>
+        <v>0.9967280474648045</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7714725978291931</v>
       </c>
       <c r="E38" t="n">
-        <v>3.364739078237926</v>
+        <v>3.37993151079672</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.272623783863018</v>
+        <v>-2.337315969748476</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8961938721682082</v>
+        <v>0.9054191982381516</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7088364406887472</v>
       </c>
       <c r="E39" t="n">
-        <v>3.04787958500537</v>
+        <v>3.05842079106072</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.19607215090812</v>
+        <v>-2.255893534622713</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8084674904616358</v>
+        <v>0.8157205705725893</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6473200300014255</v>
       </c>
       <c r="E40" t="n">
-        <v>2.767214661467123</v>
+        <v>2.782109604411991</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.12190279589331</v>
+        <v>-2.183174638228182</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7419541644528326</v>
+        <v>0.7475466543908139</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5854719300642323</v>
       </c>
       <c r="E41" t="n">
-        <v>2.47100472508691</v>
+        <v>2.482959400313189</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.0630777662825</v>
+        <v>-2.11980935046198</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6843985812633516</v>
+        <v>0.6874962508940714</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5227326684414499</v>
       </c>
       <c r="E42" t="n">
-        <v>2.196270705597724</v>
+        <v>2.203914142450761</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.978456924302254</v>
+        <v>-2.031842143829849</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6133017115733209</v>
+        <v>0.6135346664032734</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4583251924401695</v>
       </c>
       <c r="E43" t="n">
-        <v>1.943985346816529</v>
+        <v>1.950983435829832</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.915107376727265</v>
+        <v>-1.969038780889951</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5424173344646657</v>
+        <v>0.5448539160644391</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3939112595684982</v>
       </c>
       <c r="E44" t="n">
-        <v>1.741528711358349</v>
+        <v>1.750067765091405</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.864034391288861</v>
+        <v>-1.915135709071449</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4757513286010964</v>
+        <v>0.4781375415889882</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3311884261468477</v>
       </c>
       <c r="E45" t="n">
-        <v>1.530721904461669</v>
+        <v>1.533813278015904</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.779133373905023</v>
+        <v>-1.829396526505518</v>
       </c>
       <c r="G45" t="n">
-        <v>0.425108837392368</v>
+        <v>0.4275076425332303</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2727857818293989</v>
       </c>
       <c r="E46" t="n">
-        <v>1.334048215255148</v>
+        <v>1.339602928734219</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.720208394080011</v>
+        <v>-1.768414303688966</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3742255212580807</v>
+        <v>0.3728514025651852</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2191516404847406</v>
       </c>
       <c r="E47" t="n">
-        <v>1.180299601505619</v>
+        <v>1.183118669751868</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.689157718874112</v>
+        <v>-1.736027286249083</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3254041701726972</v>
+        <v>0.3276943679941898</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.171051186372838</v>
       </c>
       <c r="E48" t="n">
-        <v>1.004401390681145</v>
+        <v>1.004239266711651</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.626381901268838</v>
+        <v>-1.673711082227228</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2550313492784648</v>
+        <v>0.2561111263956771</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1286687704620383</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8579640957500572</v>
+        <v>0.8580490927826074</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.576057361922612</v>
+        <v>-1.623702920724384</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2205194060248259</v>
+        <v>0.2208263397534796</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.09210969878849165</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7583271113526023</v>
+        <v>0.758006011451857</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.52440592445713</v>
+        <v>-1.574654123875972</v>
       </c>
       <c r="G50" t="n">
-        <v>0.178406524434426</v>
+        <v>0.179066038446251</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.0604248411294818</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6433418665033445</v>
+        <v>0.6425847633059989</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.486912001978187</v>
+        <v>-1.53823840449512</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1442471614639585</v>
+        <v>0.1453521228871116</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.03164963567177236</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5348777828736354</v>
+        <v>0.5372057571540391</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.443545414157671</v>
+        <v>-1.492801981530094</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1056396204566952</v>
+        <v>0.105010012808175</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.00516306398352893</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4651691980485919</v>
+        <v>0.4713299088893627</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.404641170546042</v>
+        <v>-1.44993357076147</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07323214076823538</v>
+        <v>0.07378304746069062</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02073373360149871</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3723461424272477</v>
+        <v>0.3842362828695531</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.351569967833147</v>
+        <v>-1.401497067351244</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04281736928734219</v>
+        <v>0.04161009662130456</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04604976365936585</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2809806285122279</v>
+        <v>0.2973992219665154</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.320023476604039</v>
+        <v>-1.369419344668697</v>
       </c>
       <c r="G55" t="n">
-        <v>0.009024752772137719</v>
+        <v>0.005961711562086581</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.0710344910773358</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2161829833456425</v>
+        <v>0.2348854785449373</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.299883901946997</v>
+        <v>-1.348482529326716</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008917491191568821</v>
+        <v>-0.009820978167195417</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09462211622326104</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1400996210793312</v>
+        <v>0.1593797812961433</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.306959904906804</v>
+        <v>-1.35527678286381</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04477679481304109</v>
+        <v>-0.04602814001447514</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1162604297244575</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07645415790953788</v>
+        <v>0.09619078367152721</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.287864691936744</v>
+        <v>-1.333440415594006</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07514119768205266</v>
+        <v>-0.07534424614870044</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1354774844171004</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03838178340351685</v>
+        <v>0.06098469798539472</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.297869157471732</v>
+        <v>-1.343640059500034</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09975413468183152</v>
+        <v>-0.1009787215582034</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1516521534475568</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.01695285880580883</v>
+        <v>0.01076876595853888</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.30281708657954</v>
+        <v>-1.345887758805252</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1049783041454285</v>
+        <v>-0.1048067360612067</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1646148396014034</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.05619158148071368</v>
+        <v>-0.02541793364016393</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.283276426198153</v>
+        <v>-1.325551431758047</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1359329641849278</v>
+        <v>-0.1359644445673538</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.174051315914242</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1104070960947946</v>
+        <v>-0.07973575949712937</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.307595808631809</v>
+        <v>-1.351107206211485</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1438612984989194</v>
+        <v>-0.1426555998520031</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1808604619861383</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.154407226611634</v>
+        <v>-0.1201172200540985</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.346878603842111</v>
+        <v>-1.391953002409238</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1623513011168386</v>
+        <v>-0.1621576967649186</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1857435823345224</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2110073801944854</v>
+        <v>-0.1712885816875839</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.387645699083798</v>
+        <v>-1.434739564183554</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1786864715576971</v>
+        <v>-0.1772792984632543</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1896284046590504</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2653865927971816</v>
+        <v>-0.2215832146705047</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.420493904126222</v>
+        <v>-1.467075426001995</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.203922720129511</v>
+        <v>-0.2027941484195384</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1933073636154387</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3316071512494228</v>
+        <v>-0.288190981826586</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.463423701640577</v>
+        <v>-1.507428554214781</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2101117633144653</v>
+        <v>-0.207796381187032</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1975740619446438</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3205276306545873</v>
+        <v>-0.2729355885029397</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.51005323109955</v>
+        <v>-1.55324431578804</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2433219927547886</v>
+        <v>-0.2407956920651009</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2024557293632203</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3460125742475667</v>
+        <v>-0.3036635897889717</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.539658169742534</v>
+        <v>-1.587683854162099</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2535200626416957</v>
+        <v>-0.2512676412791144</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2073511789381109</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3740395587214468</v>
+        <v>-0.3326160975061765</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.598222699188768</v>
+        <v>-1.648414233919244</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2589079300939079</v>
+        <v>-0.2592935647786266</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2115327897873336</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.400261143263195</v>
+        <v>-0.3593083137651936</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.61670325769196</v>
+        <v>-1.665091753518985</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2692508097399748</v>
+        <v>-0.2698190306427643</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2147423813784711</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4060519596104601</v>
+        <v>-0.3687272441870569</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.653775343046394</v>
+        <v>-1.705990279357302</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2876070207325834</v>
+        <v>-0.2890267859799966</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2167896469649247</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4037601877698463</v>
+        <v>-0.3680756002708385</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.68610569579791</v>
+        <v>-1.74002922986499</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2850146112398012</v>
+        <v>-0.2865020593094303</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.216911259307845</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.363581775679525</v>
+        <v>-0.3312042023543699</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.711672488385197</v>
+        <v>-1.762244935743028</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2866122406479213</v>
+        <v>-0.2903096115638567</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.215029658155915</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3222134051335003</v>
+        <v>-0.289201502102461</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.744068949939808</v>
+        <v>-1.795743210682549</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2915011440386813</v>
+        <v>-0.2953323065799272</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2111002575387263</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2576093643188349</v>
+        <v>-0.2285230649763195</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.763404987835426</v>
+        <v>-1.813471388045759</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2944949284073952</v>
+        <v>-0.3009547028812132</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2055759376555817</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1497512780508266</v>
+        <v>-0.121574761760423</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.771659931117088</v>
+        <v>-1.821006217579425</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2770311862565641</v>
+        <v>-0.2850523876987124</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1991511875418997</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.06236173643621237</v>
+        <v>-0.03780861216304295</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.757968325790454</v>
+        <v>-1.807272900746076</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2631625037787837</v>
+        <v>-0.2717456300472363</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1921240185983899</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0737688812885989</v>
+        <v>0.0964017022337815</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.76193249294745</v>
+        <v>-1.810813656759442</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2346239630904809</v>
+        <v>-0.2462260580335883</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1849810756338713</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2015383094410609</v>
+        <v>0.2243301063174949</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.790886574683776</v>
+        <v>-1.838168535068527</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2183344392041401</v>
+        <v>-0.2291101741085646</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1777776929952807</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3477725559055013</v>
+        <v>0.37230049587273</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.749413531866185</v>
+        <v>-1.790737042867252</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1917240719394307</v>
+        <v>-0.2034788467373042</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1704629048781102</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4786081733062571</v>
+        <v>0.5008018429165968</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.729409322853574</v>
+        <v>-1.766762370621161</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1634106159854739</v>
+        <v>-0.1741170940485612</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1627704714136223</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6557183788541318</v>
+        <v>0.682709658746196</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.691284218706989</v>
+        <v>-1.724850176468727</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1377131798111189</v>
+        <v>-0.1475995939120085</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1542575746445188</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8300929391691859</v>
+        <v>0.8533522197246461</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.623714725867794</v>
+        <v>-1.651511903549964</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1177388771618132</v>
+        <v>-0.1318830129858211</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1453141133088004</v>
       </c>
       <c r="E84" t="n">
-        <v>1.010700615204591</v>
+        <v>1.038146786622711</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.546121879264155</v>
+        <v>-1.566884765493232</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1014540753328363</v>
+        <v>-0.1163867947366159</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1367868441997633</v>
       </c>
       <c r="E85" t="n">
-        <v>1.156550801003434</v>
+        <v>1.186762524017679</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.441576316236924</v>
+        <v>-1.462663450404989</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08047712250326199</v>
+        <v>-0.09850121546127616</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1298314205710806</v>
       </c>
       <c r="E86" t="n">
-        <v>1.31915327231028</v>
+        <v>1.346804066214169</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.326154281081505</v>
+        <v>-1.343330764742699</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05035039652156682</v>
+        <v>-0.06852559531522587</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1256909918315348</v>
       </c>
       <c r="E87" t="n">
-        <v>1.458515351291122</v>
+        <v>1.490685154092265</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.196898191868975</v>
+        <v>-1.210566186908789</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02610735401529363</v>
+        <v>-0.04542214265277437</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1260177332118116</v>
       </c>
       <c r="E88" t="n">
-        <v>1.551011010935235</v>
+        <v>1.576864275002599</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.052565360503065</v>
+        <v>-1.061747401047173</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0122890401493949</v>
+        <v>-0.03088607606756252</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1330583394229157</v>
       </c>
       <c r="E89" t="n">
-        <v>1.655401533079018</v>
+        <v>1.683274263679011</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9091777276194972</v>
+        <v>-0.9117709241218401</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01222315962662072</v>
+        <v>-0.007069592743161814</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1487757732011699</v>
       </c>
       <c r="E90" t="n">
-        <v>1.699645636559659</v>
+        <v>1.725966384306049</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7206181069832813</v>
+        <v>-0.7158787354090449</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01431660505795063</v>
+        <v>-0.007274215228930903</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1734348726400916</v>
       </c>
       <c r="E91" t="n">
-        <v>1.719479851507169</v>
+        <v>1.738777325934316</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5360313106092284</v>
+        <v>-0.530035871776194</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.004716434156817285</v>
+        <v>-0.02345198375765937</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2065939651157364</v>
       </c>
       <c r="E92" t="n">
-        <v>1.692782913190788</v>
+        <v>1.709621769750463</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3730935732295451</v>
+        <v>-0.3644742445213025</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.007604759244404047</v>
+        <v>-0.02660317003850335</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2468401370170047</v>
       </c>
       <c r="E93" t="n">
-        <v>1.650507907630894</v>
+        <v>1.663676151599696</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2209882354426531</v>
+        <v>-0.211429217318994</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02390215322635137</v>
+        <v>-0.03950855281404769</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2929299855417796</v>
       </c>
       <c r="E94" t="n">
-        <v>1.55324297004924</v>
+        <v>1.562296728034961</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08337646572469785</v>
+        <v>-0.07120929791704354</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02987870382993008</v>
+        <v>-0.04681829761336808</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3430862304631478</v>
       </c>
       <c r="E95" t="n">
-        <v>1.483323466661942</v>
+        <v>1.493683660518343</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02352461691755965</v>
+        <v>0.03542262745547155</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06590957553562413</v>
+        <v>-0.08038268135598395</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3948629292143327</v>
       </c>
       <c r="E96" t="n">
-        <v>1.399741477301754</v>
+        <v>1.408324603570207</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1049328858712312</v>
+        <v>0.1188519369608932</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09503994741353596</v>
+        <v>-0.1091337146256623</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4439080187048416</v>
       </c>
       <c r="E97" t="n">
-        <v>1.320440819951504</v>
+        <v>1.32735863398962</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1683202099051312</v>
+        <v>0.182122783579817</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1142193704065848</v>
+        <v>-0.1298903047782545</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4860162336039964</v>
       </c>
       <c r="E98" t="n">
-        <v>1.225044243066833</v>
+        <v>1.233894952585907</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2008048165305348</v>
+        <v>0.2162034455942194</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1353096526128927</v>
+        <v>-0.149732389821371</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5178330764632497</v>
       </c>
       <c r="E99" t="n">
-        <v>1.138517263930692</v>
+        <v>1.149324479217542</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2222649932303484</v>
+        <v>0.2363524643659896</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1378737297614916</v>
+        <v>-0.151978515107467</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5382837895621359</v>
       </c>
       <c r="E100" t="n">
-        <v>1.050641350407596</v>
+        <v>1.060633223789612</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2342259645331123</v>
+        <v>0.2483575082041499</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.152397204193733</v>
+        <v>-0.1663068111686672</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5478081034654759</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9603241332273622</v>
+        <v>0.9702593419210122</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2270940838944989</v>
+        <v>0.2456313070860571</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1657952549542445</v>
+        <v>-0.1809074125378524</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5518472546401347</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8998849470076584</v>
+        <v>0.9081516954327296</v>
       </c>
       <c r="F102" t="n">
-        <v>0.233517655928527</v>
+        <v>0.2512049087945828</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1908772496521709</v>
+        <v>-0.2076169430072037</v>
       </c>
     </row>
   </sheetData>
